--- a/biology/Zoologie/Boophis_luteus/Boophis_luteus.xlsx
+++ b/biology/Zoologie/Boophis_luteus/Boophis_luteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis luteus est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis luteus est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans le centre et l'Est de l'île[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans le centre et l'Est de l'île.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis luteus mesure de 35 à 40 mm pour les mâles et jusqu'à 60 mm pour les femelles. Son dos est vert. Son ventre varie du bleuâtre au verdâtre. Des franges latérales blanches courent le long des membres antérieurs et du tarse. Les mâles ont une paire de sacs vocaux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis luteus mesure de 35 à 40 mm pour les mâles et jusqu'à 60 mm pour les femelles. Son dos est vert. Son ventre varie du bleuâtre au verdâtre. Des franges latérales blanches courent le long des membres antérieurs et du tarse. Les mâles ont une paire de sacs vocaux.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1882 : Catalogue of the Batrachia Salientia s. Ecaudata in the collection of the British Museum, ed. 2, p. 1-503 (texte intégral).</t>
         </is>
